--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H2">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I2">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J2">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N2">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O2">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P2">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q2">
-        <v>5.996292976788667</v>
+        <v>1.637631837667778</v>
       </c>
       <c r="R2">
-        <v>53.96663679109801</v>
+        <v>14.73868653901</v>
       </c>
       <c r="S2">
-        <v>0.008972536655375035</v>
+        <v>0.005891927232220185</v>
       </c>
       <c r="T2">
-        <v>0.01212709619628675</v>
+        <v>0.006008864387439619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H3">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I3">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J3">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.032601</v>
       </c>
       <c r="O3">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P3">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q3">
-        <v>0.244303298203</v>
+        <v>0.2184558923843334</v>
       </c>
       <c r="R3">
-        <v>2.198729683827</v>
+        <v>1.966103031459</v>
       </c>
       <c r="S3">
-        <v>0.0003655625745173944</v>
+        <v>0.0007859680007267492</v>
       </c>
       <c r="T3">
-        <v>0.0004940868649757984</v>
+        <v>0.0008015671177008838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H4">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I4">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J4">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N4">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O4">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P4">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q4">
-        <v>14.495321532975</v>
+        <v>23.97489927933722</v>
       </c>
       <c r="R4">
-        <v>130.457893796775</v>
+        <v>215.774093514035</v>
       </c>
       <c r="S4">
-        <v>0.02169003487480012</v>
+        <v>0.08625770377964513</v>
       </c>
       <c r="T4">
-        <v>0.02931580549965679</v>
+        <v>0.08796966153102274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H5">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I5">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J5">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N5">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O5">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P5">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q5">
-        <v>85.65721685492552</v>
+        <v>1.6412536716555</v>
       </c>
       <c r="R5">
-        <v>513.9433011295531</v>
+        <v>9.847522029933</v>
       </c>
       <c r="S5">
-        <v>0.1281729430171762</v>
+        <v>0.005904957989080183</v>
       </c>
       <c r="T5">
-        <v>0.1154906109187697</v>
+        <v>0.004014769177265244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H6">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I6">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J6">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N6">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O6">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P6">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q6">
-        <v>4.291482948428001</v>
+        <v>5.566199314359445</v>
       </c>
       <c r="R6">
-        <v>38.62334653585201</v>
+        <v>50.095793829235</v>
       </c>
       <c r="S6">
-        <v>0.006421548815199638</v>
+        <v>0.02002626021667081</v>
       </c>
       <c r="T6">
-        <v>0.008679233443356962</v>
+        <v>0.02042372165961181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J7">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N7">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O7">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P7">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q7">
-        <v>7.868859815955778</v>
+        <v>2.403315591885556</v>
       </c>
       <c r="R7">
-        <v>70.81973834360201</v>
+        <v>21.62984032697</v>
       </c>
       <c r="S7">
-        <v>0.01177454694224812</v>
+        <v>0.008646730148832459</v>
       </c>
       <c r="T7">
-        <v>0.01591423573073925</v>
+        <v>0.008818341912811011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J8">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.032601</v>
       </c>
       <c r="O8">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P8">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q8">
         <v>0.3205961439136667</v>
@@ -948,10 +948,10 @@
         <v>2.885365295223</v>
       </c>
       <c r="S8">
-        <v>0.0004797231662916202</v>
+        <v>0.001153451653431347</v>
       </c>
       <c r="T8">
-        <v>0.0006483839753076583</v>
+        <v>0.001176344223166053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J9">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N9">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O9">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P9">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q9">
-        <v>19.022028038275</v>
+        <v>35.18449502909944</v>
       </c>
       <c r="R9">
-        <v>171.198252344475</v>
+        <v>316.660455261895</v>
       </c>
       <c r="S9">
-        <v>0.02846355981831963</v>
+        <v>0.1265879666269178</v>
       </c>
       <c r="T9">
-        <v>0.03847076264645213</v>
+        <v>0.129100359621423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J10">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N10">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O10">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P10">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q10">
-        <v>112.4068877663995</v>
+        <v>2.4086308342335</v>
       </c>
       <c r="R10">
-        <v>674.441326598397</v>
+        <v>14.451785005401</v>
       </c>
       <c r="S10">
-        <v>0.1681997401902788</v>
+        <v>0.008665853507584632</v>
       </c>
       <c r="T10">
-        <v>0.1515568753722887</v>
+        <v>0.0058918965420728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I11">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J11">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N11">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O11">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P11">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q11">
-        <v>5.631659069105335</v>
+        <v>8.16870635514389</v>
       </c>
       <c r="R11">
-        <v>50.68493162194801</v>
+        <v>73.518357196295</v>
       </c>
       <c r="S11">
-        <v>0.008426917701273578</v>
+        <v>0.0293896480996764</v>
       </c>
       <c r="T11">
-        <v>0.01138964882805094</v>
+        <v>0.02997294482182233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H12">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I12">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J12">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N12">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O12">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P12">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q12">
-        <v>11.40655211893534</v>
+        <v>5.032344492654445</v>
       </c>
       <c r="R12">
-        <v>102.658969070418</v>
+        <v>45.29110043388999</v>
       </c>
       <c r="S12">
-        <v>0.01706816317927891</v>
+        <v>0.01810553927701487</v>
       </c>
       <c r="T12">
-        <v>0.0230689786756166</v>
+        <v>0.01846488014687318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H13">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I13">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J13">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.032601</v>
       </c>
       <c r="O13">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P13">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q13">
-        <v>0.4647301782230001</v>
+        <v>0.6713018650723332</v>
       </c>
       <c r="R13">
-        <v>4.182571604007</v>
+        <v>6.041716785650999</v>
       </c>
       <c r="S13">
-        <v>0.0006953977357520636</v>
+        <v>0.002415232562584237</v>
       </c>
       <c r="T13">
-        <v>0.0009398852922036665</v>
+        <v>0.002463167714179027</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H14">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I14">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J14">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N14">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O14">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P14">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q14">
-        <v>27.573976319475</v>
+        <v>73.67342865179056</v>
       </c>
       <c r="R14">
-        <v>248.165786875275</v>
+        <v>663.060857866115</v>
       </c>
       <c r="S14">
-        <v>0.04126024432405786</v>
+        <v>0.2650647542262646</v>
       </c>
       <c r="T14">
-        <v>0.05576649850746471</v>
+        <v>0.2703254977973419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H15">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I15">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J15">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N15">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O15">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P15">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q15">
-        <v>162.9429236030956</v>
+        <v>5.0434741714395</v>
       </c>
       <c r="R15">
-        <v>977.6575416185732</v>
+        <v>30.260845028637</v>
       </c>
       <c r="S15">
-        <v>0.2438191996992337</v>
+        <v>0.01814558201190266</v>
       </c>
       <c r="T15">
-        <v>0.2196940139169349</v>
+        <v>0.012337145073622</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H16">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I16">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J16">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N16">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O16">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P16">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q16">
-        <v>8.163547729948004</v>
+        <v>17.10459690654611</v>
       </c>
       <c r="R16">
-        <v>73.47192956953202</v>
+        <v>153.941372158915</v>
       </c>
       <c r="S16">
-        <v>0.01221550239929907</v>
+        <v>0.06153949745710365</v>
       </c>
       <c r="T16">
-        <v>0.01651022206674724</v>
+        <v>0.06276087265110032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H17">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I17">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J17">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N17">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O17">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P17">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q17">
-        <v>0.3166124482329999</v>
+        <v>0.1219516282916667</v>
       </c>
       <c r="R17">
-        <v>1.899674689398</v>
+        <v>0.73170976975</v>
       </c>
       <c r="S17">
-        <v>0.0004737621741157869</v>
+        <v>0.0004387616943064286</v>
       </c>
       <c r="T17">
-        <v>0.0004268848138370711</v>
+        <v>0.0002983132021808877</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H18">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I18">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J18">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.032601</v>
       </c>
       <c r="O18">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P18">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q18">
-        <v>0.0128995473795</v>
+        <v>0.0162680348375</v>
       </c>
       <c r="R18">
-        <v>0.07739728427699999</v>
+        <v>0.097608209025</v>
       </c>
       <c r="S18">
-        <v>1.930220256887723E-05</v>
+        <v>5.852968614134735E-05</v>
       </c>
       <c r="T18">
-        <v>1.739230694311782E-05</v>
+        <v>3.979421704774794E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H19">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I19">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J19">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N19">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O19">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P19">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q19">
-        <v>0.7653727488374999</v>
+        <v>1.785369542770833</v>
       </c>
       <c r="R19">
-        <v>4.592236493025</v>
+        <v>10.712217256625</v>
       </c>
       <c r="S19">
-        <v>0.001145263427012774</v>
+        <v>0.006423462946109375</v>
       </c>
       <c r="T19">
-        <v>0.001031943011801674</v>
+        <v>0.004367299664965513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H20">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I20">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J20">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N20">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O20">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P20">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q20">
-        <v>4.52281788802575</v>
+        <v>0.12222134004375</v>
       </c>
       <c r="R20">
-        <v>18.091271552103</v>
+        <v>0.488885360175</v>
       </c>
       <c r="S20">
-        <v>0.006767706221658018</v>
+        <v>0.0004397320723733405</v>
       </c>
       <c r="T20">
-        <v>0.004065374525278717</v>
+        <v>0.0001993153068640723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H21">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I21">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J21">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N21">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O21">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P21">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q21">
-        <v>0.226596153342</v>
+        <v>0.4145052961041667</v>
       </c>
       <c r="R21">
-        <v>1.359576920052</v>
+        <v>2.487031776625</v>
       </c>
       <c r="S21">
-        <v>0.0003390665365582142</v>
+        <v>0.001491321178448584</v>
       </c>
       <c r="T21">
-        <v>0.0003055169096333529</v>
+        <v>0.001013946299314976</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H22">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I22">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J22">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2667246666666667</v>
+        <v>0.08146333333333333</v>
       </c>
       <c r="N22">
-        <v>0.8001740000000001</v>
+        <v>0.24439</v>
       </c>
       <c r="O22">
-        <v>0.0541745827576984</v>
+        <v>0.04956746861823912</v>
       </c>
       <c r="P22">
-        <v>0.07300781059322826</v>
+        <v>0.05040207820148787</v>
       </c>
       <c r="Q22">
-        <v>10.61623466226733</v>
+        <v>4.58178755028</v>
       </c>
       <c r="R22">
-        <v>95.54611196040599</v>
+        <v>41.23608795251999</v>
       </c>
       <c r="S22">
-        <v>0.01588557380668056</v>
+        <v>0.01648451026586518</v>
       </c>
       <c r="T22">
-        <v>0.02147061517674859</v>
+        <v>0.01681167855218317</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H23">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I23">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J23">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.032601</v>
       </c>
       <c r="O23">
-        <v>0.002207201899191583</v>
+        <v>0.006612173347613296</v>
       </c>
       <c r="P23">
-        <v>0.002974512584950067</v>
+        <v>0.006723508128183256</v>
       </c>
       <c r="Q23">
-        <v>0.432530757341</v>
+        <v>0.6111987230519998</v>
       </c>
       <c r="R23">
-        <v>3.892776816069</v>
+        <v>5.500788507467999</v>
       </c>
       <c r="S23">
-        <v>0.0006472162200616276</v>
+        <v>0.002198991444729615</v>
       </c>
       <c r="T23">
-        <v>0.0008747641455198256</v>
+        <v>0.002242634856089544</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H24">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I24">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J24">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.644775</v>
+        <v>1.192621666666667</v>
       </c>
       <c r="N24">
-        <v>1.934325</v>
+        <v>3.577865</v>
       </c>
       <c r="O24">
-        <v>0.1309605783151976</v>
+        <v>0.7256668075935845</v>
       </c>
       <c r="P24">
-        <v>0.1764876554671187</v>
+        <v>0.7378854761830124</v>
       </c>
       <c r="Q24">
-        <v>25.663478334825</v>
+        <v>67.07728349597998</v>
       </c>
       <c r="R24">
-        <v>230.971305013425</v>
+        <v>603.6955514638199</v>
       </c>
       <c r="S24">
-        <v>0.03840147587100726</v>
+        <v>0.2413329200146475</v>
       </c>
       <c r="T24">
-        <v>0.0519026458017434</v>
+        <v>0.2461226575682591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H25">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I25">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J25">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>3.8101695</v>
+        <v>0.08164349999999999</v>
       </c>
       <c r="N25">
-        <v>7.620339</v>
+        <v>0.163287</v>
       </c>
       <c r="O25">
-        <v>0.7738854657809741</v>
+        <v>0.04967709346699789</v>
       </c>
       <c r="P25">
-        <v>0.6952791097538666</v>
+        <v>0.03367569926464401</v>
       </c>
       <c r="Q25">
-        <v>151.6532161067985</v>
+        <v>4.591920764285999</v>
       </c>
       <c r="R25">
-        <v>909.919296640791</v>
+        <v>27.551524585716</v>
       </c>
       <c r="S25">
-        <v>0.2269258766526274</v>
+        <v>0.01652096788605708</v>
       </c>
       <c r="T25">
-        <v>0.2044722350205945</v>
+        <v>0.01123257316481989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H26">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I26">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J26">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.190892</v>
+        <v>0.2768883333333333</v>
       </c>
       <c r="N26">
-        <v>0.5726760000000001</v>
+        <v>0.830665</v>
       </c>
       <c r="O26">
-        <v>0.03877217124693842</v>
+        <v>0.1684764569735652</v>
       </c>
       <c r="P26">
-        <v>0.05225091160083631</v>
+        <v>0.1713132382226724</v>
       </c>
       <c r="Q26">
-        <v>7.597925952916001</v>
+        <v>15.57318448158</v>
       </c>
       <c r="R26">
-        <v>68.381333576244</v>
+        <v>140.15866033422</v>
       </c>
       <c r="S26">
-        <v>0.01136913579460792</v>
+        <v>0.05602973002166577</v>
       </c>
       <c r="T26">
-        <v>0.01536629035304781</v>
+        <v>0.05714175279082301</v>
       </c>
     </row>
   </sheetData>
